--- a/A_O_S/Data/AdvantageexcelFile.xlsx
+++ b/A_O_S/Data/AdvantageexcelFile.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project001\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242862BE-D9E5-4360-A3D7-DC0152DDF9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FBD9DD1D-BF43-48BD-972E-64037F567DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{82C7021C-9607-4192-9758-DAFF721A45AD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21870" windowHeight="16500" firstSheet="1" activeTab="1" xr2:uid="{82C7021C-9607-4192-9758-DAFF721A45AD}"/>
   </bookViews>
   <sheets>
     <sheet name="homePage" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,8 @@
     <sheet name="purchaseMicePage" sheetId="6" r:id="rId6"/>
     <sheet name="searchPage" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
+  <oleSize ref="A1:B32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -928,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A118F6-40AD-45F3-B00E-A90D31A8D12E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A10F4B-501C-48BC-9A9F-F6B91452E765}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
